--- a/LawFirm/StorageBlanks.xlsx
+++ b/LawFirm/StorageBlanks.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Re2f94d0fac2a4ec8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R2e0d0101b84541b7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -16,16 +16,43 @@
     <x:t>storage1</x:t>
   </x:si>
   <x:si>
+    <x:t>blank2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
     <x:t>blank1</x:t>
   </x:si>
   <x:si>
-    <x:t>24</x:t>
+    <x:t>9</x:t>
   </x:si>
   <x:si>
     <x:t>Итого:</x:t>
   </x:si>
   <x:si>
-    <x:t>24</x:t>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>storage2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>blank2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>blank1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итого:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -129,11 +156,48 @@
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="1" t="s">
         <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="B8" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="B9" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/LawFirm/StorageBlanks.xlsx
+++ b/LawFirm/StorageBlanks.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R2e0d0101b84541b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R24e383fb791d46fd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -16,43 +16,10 @@
     <x:t>storage1</x:t>
   </x:si>
   <x:si>
-    <x:t>blank2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blank1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
     <x:t>Итого:</x:t>
   </x:si>
   <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>storage2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blank2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blank1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итого:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
+    <x:t>0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -148,56 +115,11 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="B3" s="1" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="A7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="B8" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9">
-      <x:c r="B9" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
